--- a/resultados/testes.xlsx
+++ b/resultados/testes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Experimento 1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Experimento 3" sheetId="3" r:id="rId3"/>
     <sheet name="Experimento 4" sheetId="4" r:id="rId4"/>
     <sheet name="Experimento 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Experimento 6" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="exp1_" localSheetId="0">'Experimento 1'!$A$1:$D$12</definedName>
@@ -24,6 +25,7 @@
     <definedName name="exp3_" localSheetId="2">'Experimento 3'!$A$1:$D$12</definedName>
     <definedName name="exp4_" localSheetId="3">'Experimento 4'!$A$1:$D$7</definedName>
     <definedName name="exp5_" localSheetId="4">'Experimento 5'!$A$1:$D$7</definedName>
+    <definedName name="exp6_" localSheetId="5">'Experimento 6'!$A$1:$D$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -86,11 +88,21 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="6" name="exp6" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\Marcos\Documents\GitHub\drunk\resultados\exp6.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
   <si>
     <t>Baseline</t>
   </si>
@@ -135,6 +147,12 @@
   </si>
   <si>
     <t>Igual ao experimento 2. Não entendi porque se rodo 2 vezes no mesmo dia, apresenta o mesmo resultado.</t>
+  </si>
+  <si>
+    <t>2 Gram + Entidades + Hora + Erro Q2 + SVM poly (Not Null)</t>
+  </si>
+  <si>
+    <t>2 Gram + Entidades + Hora + Sentiment + Erro Q2 (Not Null)</t>
   </si>
 </sst>
 </file>
@@ -199,6 +217,1130 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39647085072634863"/>
+          <c:y val="1.984126984126984E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Experimento 6'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Experimento 6'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3 GRAM 25 Not Null</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Gram + Entidades + Hora + Erro (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 GRAM 25 Q2 (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 Gram + Entidades + Hora + Erro Q2 (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 Gram + Entidades + Hora + Erro Q2 + SVM poly (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 Gram + Entidades + Hora + Sentiment + Erro Q2 (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 GRAM 25 Q3 (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 Gram + Entidades + Hora + Erro Q3 (Not Null)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Experimento 6'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>89.3095768374165</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.645879732739402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.219081272084793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.910652920962207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.878787878787904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.972508591065306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.553903345724905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.720430107526894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA12-4F3F-A601-CBA115708248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Experimento 6'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Experimento 6'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3 GRAM 25 Not Null</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Gram + Entidades + Hora + Erro (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 GRAM 25 Q2 (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 Gram + Entidades + Hora + Erro Q2 (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 Gram + Entidades + Hora + Erro Q2 + SVM poly (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 Gram + Entidades + Hora + Sentiment + Erro Q2 (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 GRAM 25 Q3 (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 Gram + Entidades + Hora + Erro Q3 (Not Null)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Experimento 6'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>88.913525498891403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.243902439024396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.561643835616394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.168831168831204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.5625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.116883116883102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.978417266186995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.510067114093999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA12-4F3F-A601-CBA115708248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Experimento 6'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revocação</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Experimento 6'!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3 GRAM 25 Not Null</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Gram + Entidades + Hora + Erro (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 GRAM 25 Q2 (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 Gram + Entidades + Hora + Erro Q2 (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 Gram + Entidades + Hora + Erro Q2 + SVM poly (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 Gram + Entidades + Hora + Sentiment + Erro Q2 (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 GRAM 25 Q3 (Not Null)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 Gram + Entidades + Hora + Erro Q3 (Not Null)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Experimento 6'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>89.709172259507795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.051454138702496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.051094890510996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.240875912408796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.255474452554694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.430656934306597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.307692307692307</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.692307692307693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BA12-4F3F-A601-CBA115708248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="421542920"/>
+        <c:axId val="421541608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="421542920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421541608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="421541608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421542920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7BA7591-F338-4B7F-8659-768A3B67336B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="exp1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -217,6 +1359,10 @@
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="exp5" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="exp6" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -851,7 +1997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1182,7 +2328,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E1" sqref="E1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,4 +2483,209 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>89.3095768374165</v>
+      </c>
+      <c r="C2">
+        <v>88.913525498891403</v>
+      </c>
+      <c r="D2">
+        <v>89.709172259507795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>90.645879732739402</v>
+      </c>
+      <c r="C3">
+        <v>90.243902439024396</v>
+      </c>
+      <c r="D3">
+        <v>91.051454138702496</v>
+      </c>
+      <c r="E3">
+        <f>B3-B2</f>
+        <v>1.3363028953229019</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:G3" si="0">C3-C2</f>
+        <v>1.330376940132993</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1.3422818791947009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>86.219081272084793</v>
+      </c>
+      <c r="C4">
+        <v>83.561643835616394</v>
+      </c>
+      <c r="D4">
+        <v>89.051094890510996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>85.910652920962207</v>
+      </c>
+      <c r="C5">
+        <v>81.168831168831204</v>
+      </c>
+      <c r="D5">
+        <v>91.240875912408796</v>
+      </c>
+      <c r="E5">
+        <f>B5-$B$4</f>
+        <v>-0.30842835112258626</v>
+      </c>
+      <c r="F5">
+        <f>C5-$C$4</f>
+        <v>-2.3928126667851899</v>
+      </c>
+      <c r="G5">
+        <f>D5-$D$4</f>
+        <v>2.1897810218978009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>87.878787878787904</v>
+      </c>
+      <c r="C6">
+        <v>81.5625</v>
+      </c>
+      <c r="D6">
+        <v>95.255474452554694</v>
+      </c>
+      <c r="E6">
+        <f>B6-$B$4</f>
+        <v>1.6597066067031108</v>
+      </c>
+      <c r="F6">
+        <f>C6-$C$4</f>
+        <v>-1.999143835616394</v>
+      </c>
+      <c r="G6">
+        <f>D6-$D$4</f>
+        <v>6.2043795620436981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>87.972508591065306</v>
+      </c>
+      <c r="C7">
+        <v>83.116883116883102</v>
+      </c>
+      <c r="D7">
+        <v>93.430656934306597</v>
+      </c>
+      <c r="E7">
+        <f>B7-$B$4</f>
+        <v>1.7534273189805134</v>
+      </c>
+      <c r="F7">
+        <f>C7-$C$4</f>
+        <v>-0.44476071873329204</v>
+      </c>
+      <c r="G7">
+        <f>D7-$D$4</f>
+        <v>4.3795620437956018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>79.553903345724905</v>
+      </c>
+      <c r="C8">
+        <v>76.978417266186995</v>
+      </c>
+      <c r="D8">
+        <v>82.307692307692307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>81.720430107526894</v>
+      </c>
+      <c r="C9">
+        <v>76.510067114093999</v>
+      </c>
+      <c r="D9">
+        <v>87.692307692307693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/resultados/testes.xlsx
+++ b/resultados/testes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Experimento 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Experimento 4" sheetId="4" r:id="rId4"/>
     <sheet name="Experimento 5" sheetId="5" r:id="rId5"/>
     <sheet name="Experimento 6" sheetId="7" r:id="rId6"/>
+    <sheet name="Experimento 7" sheetId="8" r:id="rId7"/>
+    <sheet name="Experimento 8" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="exp1_" localSheetId="0">'Experimento 1'!$A$1:$D$12</definedName>
@@ -26,6 +28,8 @@
     <definedName name="exp4_" localSheetId="3">'Experimento 4'!$A$1:$D$7</definedName>
     <definedName name="exp5_" localSheetId="4">'Experimento 5'!$A$1:$D$7</definedName>
     <definedName name="exp6_" localSheetId="5">'Experimento 6'!$A$1:$D$7</definedName>
+    <definedName name="exp7_" localSheetId="6">'Experimento 7'!$A$1:$D$12</definedName>
+    <definedName name="exp8_" localSheetId="7">'Experimento 8'!$A$1:$D$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -98,11 +102,31 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="7" name="exp7" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\Marcos\Documents\GitHub\drunk\resultados\exp7.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="exp8" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\Marcos\Documents\GitHub\drunk\resultados\exp8.csv" decimal="," thousands="." tab="0" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="21">
   <si>
     <t>Baseline</t>
   </si>
@@ -153,6 +177,18 @@
   </si>
   <si>
     <t>2 Gram + Entidades + Hora + Sentiment + Erro Q2 (Not Null)</t>
+  </si>
+  <si>
+    <t>2 Gram + Entidades + Hora + Erro + Sentiment (Not Null)</t>
+  </si>
+  <si>
+    <t>2 Gram + Entidades + Hora + Erro + Sentiment Q3 (Not Null)</t>
+  </si>
+  <si>
+    <t>2 Gram + Entidades + Hora + Erro + SVM poly + Q2 (Not Null)</t>
+  </si>
+  <si>
+    <t>2 Gram + Entidades + Hora + Sentiment + Erro + SVM poly Q2 (Not Null)</t>
   </si>
 </sst>
 </file>
@@ -1365,6 +1401,14 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="exp6" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="exp7" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="exp8" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -2489,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,4 +2732,589 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>89.3095768374165</v>
+      </c>
+      <c r="C2">
+        <v>88.913525498891403</v>
+      </c>
+      <c r="D2">
+        <v>89.709172259507795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>90.645879732739402</v>
+      </c>
+      <c r="C3">
+        <v>90.243902439024396</v>
+      </c>
+      <c r="D3">
+        <v>91.051454138702496</v>
+      </c>
+      <c r="E3">
+        <f>B3-$B$2</f>
+        <v>1.3363028953229019</v>
+      </c>
+      <c r="F3">
+        <f>C3-$C$2</f>
+        <v>1.330376940132993</v>
+      </c>
+      <c r="G3">
+        <f>D3-$D$2</f>
+        <v>1.3422818791947009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>88.063063063063098</v>
+      </c>
+      <c r="C4">
+        <v>88.662131519274396</v>
+      </c>
+      <c r="D4">
+        <v>87.472035794183398</v>
+      </c>
+      <c r="E4">
+        <f>B4-$B$2</f>
+        <v>-1.2465137743534029</v>
+      </c>
+      <c r="F4">
+        <f>C4-$C$2</f>
+        <v>-0.25139397961700638</v>
+      </c>
+      <c r="G4">
+        <f>D4-$D$2</f>
+        <v>-2.2371364653243972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>85.714285714285694</v>
+      </c>
+      <c r="C5">
+        <v>81.107491856677498</v>
+      </c>
+      <c r="D5">
+        <v>90.875912408759106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>88.395904436860107</v>
+      </c>
+      <c r="C6">
+        <v>83.012820512820497</v>
+      </c>
+      <c r="D6">
+        <v>94.525547445255498</v>
+      </c>
+      <c r="E6">
+        <f>B6-$B$5</f>
+        <v>2.681618722574413</v>
+      </c>
+      <c r="F6">
+        <f>C6-$C$5</f>
+        <v>1.9053286561429985</v>
+      </c>
+      <c r="G6">
+        <f>D6-$D$5</f>
+        <v>3.6496350364963916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>88.054607508532399</v>
+      </c>
+      <c r="C7">
+        <v>82.692307692307693</v>
+      </c>
+      <c r="D7">
+        <v>94.160583941605793</v>
+      </c>
+      <c r="E7">
+        <f>B7-$B$5</f>
+        <v>2.3403217942467052</v>
+      </c>
+      <c r="F7">
+        <f>C7-$C$5</f>
+        <v>1.5848158356301951</v>
+      </c>
+      <c r="G7">
+        <f>D7-$D$5</f>
+        <v>3.2846715328466871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>86.394557823129304</v>
+      </c>
+      <c r="C8">
+        <v>80.8917197452229</v>
+      </c>
+      <c r="D8">
+        <v>92.700729927007302</v>
+      </c>
+      <c r="E8">
+        <f>B8-$B$5</f>
+        <v>0.68027210884361011</v>
+      </c>
+      <c r="F8">
+        <f>C8-$C$5</f>
+        <v>-0.21577211145459785</v>
+      </c>
+      <c r="G8">
+        <f>D8-$D$5</f>
+        <v>1.8248175182481958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>87.5</v>
+      </c>
+      <c r="C9">
+        <v>81.446540880503093</v>
+      </c>
+      <c r="D9">
+        <v>94.525547445255498</v>
+      </c>
+      <c r="E9">
+        <f>B9-$B$5</f>
+        <v>1.785714285714306</v>
+      </c>
+      <c r="F9">
+        <f>C9-$C$5</f>
+        <v>0.33904902382559499</v>
+      </c>
+      <c r="G9">
+        <f>D9-$D$5</f>
+        <v>3.6496350364963916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>80.565371024735001</v>
+      </c>
+      <c r="C10">
+        <v>74.509803921568604</v>
+      </c>
+      <c r="D10">
+        <v>87.692307692307693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>78.136200716845906</v>
+      </c>
+      <c r="C11">
+        <v>73.154362416107404</v>
+      </c>
+      <c r="D11">
+        <v>83.846153846153797</v>
+      </c>
+      <c r="E11">
+        <f>B11-B10</f>
+        <v>-2.4291703078890947</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:G11" si="0">C11-C10</f>
+        <v>-1.3554415054612008</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-3.8461538461538964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>80.149812734082403</v>
+      </c>
+      <c r="C12">
+        <v>78.102189781021906</v>
+      </c>
+      <c r="D12">
+        <v>82.307692307692307</v>
+      </c>
+      <c r="E12">
+        <f>B12-B10</f>
+        <v>-0.41555829065259786</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:G12" si="1">C12-C10</f>
+        <v>3.5923858594533016</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-5.3846153846153868</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>87.301587301587304</v>
+      </c>
+      <c r="C2">
+        <v>88.505747126436802</v>
+      </c>
+      <c r="D2">
+        <v>86.129753914988797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>89.014722536806303</v>
+      </c>
+      <c r="C3">
+        <v>90.137614678899098</v>
+      </c>
+      <c r="D3">
+        <v>87.919463087248303</v>
+      </c>
+      <c r="E3">
+        <f>B3-B2</f>
+        <v>1.7131352352189992</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:G3" si="0">C3-C2</f>
+        <v>1.6318675524622961</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1.7897091722595064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>88.054607508532399</v>
+      </c>
+      <c r="C4">
+        <v>89.5833333333333</v>
+      </c>
+      <c r="D4">
+        <v>86.577181208053702</v>
+      </c>
+      <c r="E4">
+        <f>B4-B2</f>
+        <v>0.75302020694509508</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:G4" si="1">C4-C2</f>
+        <v>1.0775862068964983</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.44742729306490503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>84.507042253521107</v>
+      </c>
+      <c r="C5">
+        <v>81.632653061224502</v>
+      </c>
+      <c r="D5">
+        <v>87.591240875912405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>88.701517706576695</v>
+      </c>
+      <c r="C6">
+        <v>82.445141065830697</v>
+      </c>
+      <c r="D6">
+        <v>95.985401459854003</v>
+      </c>
+      <c r="E6">
+        <f>B6-B5</f>
+        <v>4.1944754530555883</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6" si="2">C6-C5</f>
+        <v>0.81248800460619464</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6" si="3">D6-D5</f>
+        <v>8.3941605839415985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>88.773747841105305</v>
+      </c>
+      <c r="C7">
+        <v>84.262295081967196</v>
+      </c>
+      <c r="D7">
+        <v>93.795620437956202</v>
+      </c>
+      <c r="E7">
+        <f>B7-B5</f>
+        <v>4.2667055875841982</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7" si="4">C7-C5</f>
+        <v>2.6296420207426934</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7" si="5">D7-D5</f>
+        <v>6.2043795620437976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>87.272727272727295</v>
+      </c>
+      <c r="C8">
+        <v>79.758308157099705</v>
+      </c>
+      <c r="D8">
+        <v>96.350364963503694</v>
+      </c>
+      <c r="E8">
+        <f>B8-B5</f>
+        <v>2.7656850192061881</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:G8" si="6">C8-C5</f>
+        <v>-1.874344904124797</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>8.7591240875912888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>86.811352253756297</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>94.890510948905103</v>
+      </c>
+      <c r="E9">
+        <f>B9-B6</f>
+        <v>-1.8901654528203977</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:G9" si="7">C9-C6</f>
+        <v>-2.4451410658306969</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="7"/>
+        <v>-1.0948905109489004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>75.862068965517196</v>
+      </c>
+      <c r="C10">
+        <v>75.572519083969496</v>
+      </c>
+      <c r="D10">
+        <v>76.153846153846104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>79.0035587188612</v>
+      </c>
+      <c r="C11">
+        <v>73.509933774834394</v>
+      </c>
+      <c r="D11">
+        <v>85.384615384615401</v>
+      </c>
+      <c r="E11">
+        <f>B11-B10</f>
+        <v>3.141489753344004</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:G11" si="8">C11-C10</f>
+        <v>-2.0625853091351019</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="8"/>
+        <v>9.2307692307692975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>84.671532846715294</v>
+      </c>
+      <c r="C12">
+        <v>80.5555555555556</v>
+      </c>
+      <c r="D12">
+        <v>89.230769230769198</v>
+      </c>
+      <c r="E12">
+        <f>B12-B10</f>
+        <v>8.8094638811980985</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:G12" si="9">C12-C10</f>
+        <v>4.9830364715861037</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="9"/>
+        <v>13.076923076923094</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>